--- a/figures/tables.xlsx
+++ b/figures/tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{0F58EC01-9302-4548-881B-F070D8A116DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{332F6E78-8372-44A6-A44E-0164819200DE}"/>
   <bookViews>
-    <workbookView xWindow="57510" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39370" yWindow="4110" windowWidth="19140" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -1227,6 +1227,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1238,24 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1278,6 +1262,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,8 +1295,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,17 +1635,17 @@
       <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -1688,10 +1688,10 @@
       <c r="Y2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" s="37"/>
+      <c r="AA2" s="39"/>
       <c r="AB2" s="3" t="s">
         <v>89</v>
       </c>
@@ -1939,7 +1939,7 @@
         <f>_xlfn.CONCAT(ROUND(H8,2)," (",ROUND(I8,2),")")</f>
         <v>8.62 (5.58)</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="40" t="s">
         <v>46</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -2005,7 +2005,7 @@
         <f>_xlfn.CONCAT(ROUND(H9,2)," (",ROUND(I9,2),")")</f>
         <v>3.18 (4.84)</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="40"/>
       <c r="V9" s="4" t="s">
         <v>15</v>
       </c>
@@ -2069,7 +2069,7 @@
         <f>_xlfn.CONCAT(ROUND(H10,2)," (",ROUND(I10,2),")")</f>
         <v>2.46 (5.89)</v>
       </c>
-      <c r="U10" s="38"/>
+      <c r="U10" s="40"/>
       <c r="V10" s="4" t="s">
         <v>81</v>
       </c>
@@ -2312,7 +2312,7 @@
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="40" t="s">
         <v>58</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -2376,7 +2376,7 @@
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="38"/>
+      <c r="U15" s="40"/>
       <c r="V15" s="4" t="s">
         <v>35</v>
       </c>
@@ -2726,17 +2726,17 @@
         <f>_xlfn.CONCAT(E21, " (",ROUND(F21,2),")")</f>
         <v>0 (0)</v>
       </c>
-      <c r="U21" s="39" t="s">
+      <c r="U21" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
@@ -4828,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70FBD58-595C-47BD-96EF-9CAED8A98E0F}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4890,22 +4890,22 @@
       <c r="N1">
         <v>2</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -4953,24 +4953,24 @@
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="28" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -5096,7 +5096,7 @@
         <f t="shared" si="0"/>
         <v>0.21 (0.06, 0.36)</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="53" t="s">
         <v>116</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -5175,7 +5175,7 @@
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="12" t="s">
         <v>109</v>
       </c>
@@ -5249,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>0.01 (-0.08, 0.1)</v>
       </c>
-      <c r="R6" s="44"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="12" t="s">
         <v>105</v>
       </c>
@@ -5323,7 +5323,7 @@
         <f t="shared" si="0"/>
         <v>0.1 (-0.03, 0.24)</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="53" t="s">
         <v>102</v>
       </c>
       <c r="S7" s="12" t="s">
@@ -5410,7 +5410,7 @@
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R8" s="44"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="12" t="s">
         <v>109</v>
       </c>
@@ -5492,7 +5492,7 @@
         <f t="shared" si="0"/>
         <v>0.04 (-0.05, 0.13)</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="12" t="s">
         <v>105</v>
       </c>
@@ -5574,7 +5574,7 @@
         <f t="shared" si="0"/>
         <v>0.13 (-0.01, 0.27)</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="53" t="s">
         <v>209</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -5657,7 +5657,7 @@
         <f t="shared" si="0"/>
         <v>-1.96 (-2.06, -1.85)</v>
       </c>
-      <c r="R11" s="44"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="12" t="s">
         <v>109</v>
       </c>
@@ -5735,7 +5735,7 @@
         <f t="shared" si="0"/>
         <v>0.02 (-0.04, 0.09)</v>
       </c>
-      <c r="R12" s="45"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="10" t="s">
         <v>105</v>
       </c>
@@ -5816,22 +5816,22 @@
         <f t="shared" si="0"/>
         <v>0.14 (0.04, 0.24)</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
@@ -6053,18 +6053,18 @@
         <f t="shared" si="0"/>
         <v>0.05 (-0.05, 0.16)</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="42.35" x14ac:dyDescent="0.5">
@@ -6184,10 +6184,10 @@
         <f t="shared" si="0"/>
         <v>-2.39 (-2.55, -2.24)</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q20" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="43" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="17" t="s">
@@ -6249,8 +6249,8 @@
         <f t="shared" si="0"/>
         <v>0.09 (-0.11, 0.29)</v>
       </c>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="47"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="43"/>
       <c r="S21" s="17" t="s">
         <v>109</v>
       </c>
@@ -6310,8 +6310,8 @@
         <f t="shared" si="0"/>
         <v>-0.2 (-0.42, 0.02)</v>
       </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="47"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="43"/>
       <c r="S22" s="17" t="s">
         <v>105</v>
       </c>
@@ -6374,8 +6374,8 @@
         <f t="shared" si="0"/>
         <v>-1.94 (-2.2, -1.69)</v>
       </c>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="47" t="s">
+      <c r="Q23" s="46"/>
+      <c r="R23" s="43" t="s">
         <v>111</v>
       </c>
       <c r="S23" s="17" t="s">
@@ -6435,8 +6435,8 @@
         <f t="shared" si="0"/>
         <v>-0.13 (-0.24, -0.03)</v>
       </c>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="43"/>
       <c r="S24" s="17" t="s">
         <v>109</v>
       </c>
@@ -6491,8 +6491,8 @@
         <f t="shared" si="0"/>
         <v>0.03 (-0.15, 0.2)</v>
       </c>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="47"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="43"/>
       <c r="S25" s="17" t="s">
         <v>105</v>
       </c>
@@ -6550,10 +6550,10 @@
         <f t="shared" si="0"/>
         <v>-2.42 (-2.62, -2.21)</v>
       </c>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="43" t="s">
         <v>116</v>
       </c>
       <c r="S26" s="17" t="s">
@@ -6616,8 +6616,8 @@
         <f t="shared" si="0"/>
         <v>-0.03 (-0.14, 0.08)</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="47"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="43"/>
       <c r="S27" s="17" t="s">
         <v>109</v>
       </c>
@@ -6678,8 +6678,8 @@
         <f t="shared" si="0"/>
         <v>-0.17 (-0.35, 0.02)</v>
       </c>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="47"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="43"/>
       <c r="S28" s="17" t="s">
         <v>105</v>
       </c>
@@ -6743,8 +6743,8 @@
         <f t="shared" si="0"/>
         <v>-2.18 (-2.59, -1.78)</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="47" t="s">
+      <c r="Q29" s="45"/>
+      <c r="R29" s="43" t="s">
         <v>102</v>
       </c>
       <c r="S29" s="17" t="s">
@@ -6810,8 +6810,8 @@
         <f t="shared" si="0"/>
         <v>-0.09 (-0.16, -0.01)</v>
       </c>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="43"/>
       <c r="S30" s="17" t="s">
         <v>109</v>
       </c>
@@ -6872,8 +6872,8 @@
         <f t="shared" si="0"/>
         <v>-0.06 (-0.19, 0.06)</v>
       </c>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="47"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43"/>
       <c r="S31" s="17" t="s">
         <v>105</v>
       </c>
@@ -6937,8 +6937,8 @@
         <f t="shared" si="0"/>
         <v>-0.8 (-0.88, -0.71)</v>
       </c>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="47" t="s">
+      <c r="Q32" s="45"/>
+      <c r="R32" s="43" t="s">
         <v>111</v>
       </c>
       <c r="S32" s="17" t="s">
@@ -7001,8 +7001,8 @@
         <f t="shared" si="0"/>
         <v>-0.03 (-0.16, 0.1)</v>
       </c>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="47"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="17" t="s">
         <v>109</v>
       </c>
@@ -7063,8 +7063,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.14, 0.1)</v>
       </c>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="47"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="17" t="s">
         <v>105</v>
       </c>
@@ -7128,10 +7128,10 @@
         <f t="shared" si="0"/>
         <v>-0.58 (-0.68, -0.48)</v>
       </c>
-      <c r="Q35" s="50" t="s">
+      <c r="Q35" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="R35" s="47" t="s">
+      <c r="R35" s="43" t="s">
         <v>116</v>
       </c>
       <c r="S35" s="17" t="s">
@@ -7194,8 +7194,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.06, 0.01)</v>
       </c>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="17" t="s">
         <v>109</v>
       </c>
@@ -7256,8 +7256,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.07, 0.03)</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="47"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="17" t="s">
         <v>105</v>
       </c>
@@ -7321,8 +7321,8 @@
         <f t="shared" si="0"/>
         <v>-0.86 (-0.97, -0.75)</v>
       </c>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="47" t="s">
+      <c r="Q38" s="46"/>
+      <c r="R38" s="43" t="s">
         <v>102</v>
       </c>
       <c r="S38" s="17" t="s">
@@ -7387,8 +7387,8 @@
         <f t="shared" si="0"/>
         <v>0 (-0.04, 0.04)</v>
       </c>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="47"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="43"/>
       <c r="S39" s="17" t="s">
         <v>109</v>
       </c>
@@ -7451,8 +7451,8 @@
         <f t="shared" si="0"/>
         <v>0.01 (-0.05, 0.06)</v>
       </c>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="47"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="43"/>
       <c r="S40" s="17" t="s">
         <v>105</v>
       </c>
@@ -7518,8 +7518,8 @@
         <f t="shared" si="0"/>
         <v>-0.72 (-1.02, -0.43)</v>
       </c>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="47" t="s">
+      <c r="Q41" s="46"/>
+      <c r="R41" s="43" t="s">
         <v>111</v>
       </c>
       <c r="S41" s="17" t="s">
@@ -7584,8 +7584,8 @@
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.01)</v>
       </c>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="47"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="17" t="s">
         <v>109</v>
       </c>
@@ -7648,8 +7648,8 @@
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.03)</v>
       </c>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="48"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="44"/>
       <c r="S43" s="15" t="s">
         <v>105</v>
       </c>
@@ -7715,18 +7715,18 @@
         <f t="shared" si="0"/>
         <v>-2.48 (-2.59, -2.37)</v>
       </c>
-      <c r="Q44" s="46" t="s">
+      <c r="Q44" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
@@ -9830,6 +9830,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="R13:AE13"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R12"/>
     <mergeCell ref="Q44:Z44"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R23:R25"/>
@@ -9842,15 +9851,6 @@
     <mergeCell ref="Q26:Q34"/>
     <mergeCell ref="Q35:Q43"/>
     <mergeCell ref="Q20:Q25"/>
-    <mergeCell ref="R1:AE1"/>
-    <mergeCell ref="R13:AE13"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9915,13 +9915,13 @@
         <f>_xlfn.CONCAT(D2," (",E2,", ",F2,")")</f>
         <v>-0.33 (-0.512, -0.119)</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -9946,10 +9946,10 @@
         <f t="shared" ref="H3:H37" si="0">_xlfn.CONCAT(D3," (",E3,", ",F3,")")</f>
         <v>0.041 (-0.199, 0.275)</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="57" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -9985,8 +9985,8 @@
         <f t="shared" si="0"/>
         <v>0.548 (0.355, 0.705)</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="7" t="s">
         <v>56</v>
       </c>
@@ -10020,7 +10020,7 @@
         <f t="shared" si="0"/>
         <v>0.218 (-0.057, 0.465)</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="55" t="s">
         <v>265</v>
       </c>
       <c r="M5" s="22" t="s">
@@ -10059,7 +10059,7 @@
         <f t="shared" si="0"/>
         <v>-0.049 (-0.332, 0.252)</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="22" t="s">
         <v>75</v>
       </c>
@@ -10096,7 +10096,7 @@
         <f t="shared" si="0"/>
         <v>-0.448 (-0.658, -0.192)</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="22" t="s">
         <v>76</v>
       </c>
@@ -10133,7 +10133,7 @@
         <f t="shared" si="0"/>
         <v>-0.151 (-0.39, 0.101)</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="22" t="s">
         <v>77</v>
       </c>
@@ -10170,7 +10170,7 @@
         <f t="shared" si="0"/>
         <v>0.064 (-0.193, 0.327)</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="22" t="s">
         <v>78</v>
       </c>
@@ -10207,7 +10207,7 @@
         <f t="shared" si="0"/>
         <v>0.567 (0.377, 0.722)</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="22" t="s">
         <v>79</v>
       </c>
@@ -10273,7 +10273,7 @@
         <f t="shared" si="0"/>
         <v>0.018 (-0.295, 0.335)</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="56" t="s">
         <v>244</v>
       </c>
       <c r="M12" s="22" t="s">
@@ -10312,7 +10312,7 @@
         <f t="shared" si="0"/>
         <v>-0.267 (-0.541, 0.038)</v>
       </c>
-      <c r="L13" s="54"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="22" t="s">
         <v>75</v>
       </c>
@@ -10349,7 +10349,7 @@
         <f t="shared" si="0"/>
         <v>-0.222 (-0.373, -0.067)</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="22" t="s">
         <v>76</v>
       </c>
@@ -10386,7 +10386,7 @@
         <f t="shared" si="0"/>
         <v>0.075 (-0.094, 0.244)</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="22" t="s">
         <v>77</v>
       </c>
@@ -10423,7 +10423,7 @@
         <f t="shared" si="0"/>
         <v>0.558 (0.424, 0.67)</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="22" t="s">
         <v>78</v>
       </c>
@@ -10460,7 +10460,7 @@
         <f t="shared" si="0"/>
         <v>0.36 (0.163, 0.538)</v>
       </c>
-      <c r="L17" s="57"/>
+      <c r="L17" s="59"/>
       <c r="M17" s="21" t="s">
         <v>79</v>
       </c>
@@ -10497,13 +10497,13 @@
         <f t="shared" si="0"/>
         <v>-0.034 (-0.248, 0.183)</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
@@ -10978,7 +10978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D0577-EE48-46BC-BB2C-B27FDF10FE2C}">
   <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:M28"/>
     </sheetView>
   </sheetViews>
@@ -11082,7 +11082,7 @@
       <c r="G5">
         <v>-6.1023429524482502</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="37" t="s">
         <v>289</v>
       </c>
       <c r="I5">
@@ -11478,10 +11478,10 @@
       <c r="H18">
         <v>571</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="37" t="s">
         <v>293</v>
       </c>
       <c r="K18">
@@ -11516,7 +11516,7 @@
       <c r="H19">
         <v>571</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="37" t="s">
         <v>294</v>
       </c>
       <c r="J19">
@@ -11630,7 +11630,7 @@
       <c r="H22">
         <v>571</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="37" t="s">
         <v>295</v>
       </c>
       <c r="J22">
@@ -11875,7 +11875,7 @@
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.5">
-      <c r="H35" s="58"/>
+      <c r="H35" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11886,7 +11886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4096D6E5-B519-4CA2-9221-EBECBC8FA054}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>

--- a/figures/tables.xlsx
+++ b/figures/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/santiago_castiellodeobeso_yale_edu/Documents/Yale/perceivedAnimacy/socialHallucinations/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{0F58EC01-9302-4548-881B-F070D8A116DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{332F6E78-8372-44A6-A44E-0164819200DE}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="13_ncr:1_{0F58EC01-9302-4548-881B-F070D8A116DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53925B2E-FAF5-4A0A-A849-593C91BAB98B}"/>
   <bookViews>
-    <workbookView xWindow="39370" yWindow="4110" windowWidth="19140" windowHeight="11200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Note: RGPTS = Revised Green Paranoid Thoughts Scale; High paranoia is &gt;10 persecution score; BPE = Beliefs in Purpose of Events; CAPS = Cardiff Anomalous Perceptions Scale. Study 1, 4a, and 4b were run in CloudResearch and Amazon Web Services, Study 2 in Connect (from Cloud Research), and Study 3 (both groups) were run in Prolific. *Sensitivity analysis run in Study 4a using exclusion criteria from Study 4b.</t>
-  </si>
-  <si>
-    <t>Table 1. Participants Characteristics across studies</t>
   </si>
   <si>
     <t>exp</t>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t>R2 (adj.)</t>
+  </si>
+  <si>
+    <t>Table 1. Participants Characteristics across studies (Total N = 623)</t>
   </si>
 </sst>
 </file>
@@ -1241,6 +1241,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1261,24 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1B876-0218-4255-A060-15655E67617D}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="K1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1636,7 +1636,7 @@
         <v>61</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="V1" s="38"/>
       <c r="W1" s="38"/>
@@ -1759,27 +1759,27 @@
     </row>
     <row r="4" spans="1:31" ht="24" x14ac:dyDescent="0.5">
       <c r="U4" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V4" s="27"/>
       <c r="W4" s="2"/>
       <c r="X4" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y4" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Z4" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="AA4" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AB4" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="AB4" s="26" t="s">
-        <v>217</v>
-      </c>
       <c r="AC4" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.5">
@@ -2700,7 +2700,7 @@
         <v>9.07 (18.04)</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="27.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:29" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -4828,7 +4828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70FBD58-595C-47BD-96EF-9CAED8A98E0F}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
@@ -4849,76 +4849,76 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
       </c>
       <c r="N1">
         <v>2</v>
       </c>
-      <c r="R1" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
+      <c r="R1" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
       </c>
       <c r="E2">
         <v>-1.95045016985681</v>
@@ -4930,22 +4930,22 @@
         <v>-1.79535590966231</v>
       </c>
       <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
         <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
       </c>
       <c r="J2" t="s">
         <v>86</v>
       </c>
       <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>103</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
       </c>
       <c r="N2" t="str">
         <f>_xlfn.CONCAT(ROUND(E2,$N$1)," (",ROUND(F2,$N$1),", ",ROUND(G2,$N$1),")")</f>
@@ -4953,37 +4953,37 @@
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
+      <c r="T2" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
     </row>
     <row r="3" spans="1:32" ht="28" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>2.8407120830323401E-2</v>
@@ -4995,19 +4995,19 @@
         <v>0.11423068452993999</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
         <v>86</v>
       </c>
       <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
         <v>102</v>
       </c>
-      <c r="L3" t="s">
-        <v>103</v>
-      </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="0">_xlfn.CONCAT(ROUND(E3,$N$1)," (",ROUND(F3,$N$1),", ",ROUND(G3,$N$1),")")</f>
@@ -5022,34 +5022,34 @@
         <v>87</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.5">
@@ -5057,13 +5057,13 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>0.21061361374321499</v>
@@ -5075,60 +5075,60 @@
         <v>0.35897892917894603</v>
       </c>
       <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
         <v>109</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
       </c>
       <c r="J4" t="s">
         <v>86</v>
       </c>
       <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v>0.21 (0.06, 0.36)</v>
       </c>
-      <c r="R4" s="53" t="s">
-        <v>116</v>
+      <c r="R4" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.5">
@@ -5136,13 +5136,13 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
       </c>
       <c r="E5">
         <v>-1.9670477887089</v>
@@ -5154,58 +5154,58 @@
         <v>-1.82837394458441</v>
       </c>
       <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
         <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>106</v>
       </c>
       <c r="J5" t="s">
         <v>87</v>
       </c>
       <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
         <v>102</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>103</v>
-      </c>
-      <c r="M5" t="s">
-        <v>104</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R5" s="53"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.5">
@@ -5213,13 +5213,13 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>9.31431588223996E-3</v>
@@ -5231,55 +5231,55 @@
         <v>0.100927523440174</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
         <v>87</v>
       </c>
       <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
         <v>102</v>
       </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>0.01 (-0.08, 0.1)</v>
       </c>
-      <c r="R6" s="53"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.5">
@@ -5287,13 +5287,13 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>0.101807484948334</v>
@@ -5305,65 +5305,65 @@
         <v>0.238544926922691</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
         <v>87</v>
       </c>
       <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
         <v>0.1 (-0.03, 0.24)</v>
       </c>
-      <c r="R7" s="53" t="s">
-        <v>102</v>
+      <c r="R7" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.5">
@@ -5371,13 +5371,13 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
       </c>
       <c r="E8">
         <v>-1.9682496516682599</v>
@@ -5389,66 +5389,66 @@
         <v>-1.82983535085225</v>
       </c>
       <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
         <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
         <v>103</v>
-      </c>
-      <c r="M8" t="s">
-        <v>104</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R8" s="53"/>
+      <c r="R8" s="46"/>
       <c r="S8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W8" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE8" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.5">
@@ -5456,10 +5456,10 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -5474,16 +5474,16 @@
         <v>0.13123752925737101</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
         <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
@@ -5492,45 +5492,45 @@
         <f t="shared" si="0"/>
         <v>0.04 (-0.05, 0.13)</v>
       </c>
-      <c r="R9" s="53"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.5">
@@ -5538,13 +5538,13 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
       </c>
       <c r="E10">
         <v>0.13196047028544</v>
@@ -5556,75 +5556,75 @@
         <v>0.26999853575893501</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
         <v>87</v>
       </c>
       <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
         <v>111</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>112</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>0.13 (-0.01, 0.27)</v>
       </c>
-      <c r="R10" s="53" t="s">
-        <v>209</v>
+      <c r="R10" s="46" t="s">
+        <v>208</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD10" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
       </c>
       <c r="E11">
         <v>-1.9582932802348301</v>
@@ -5636,76 +5636,76 @@
         <v>-1.85322273526708</v>
       </c>
       <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
         <v>105</v>
       </c>
-      <c r="I11" t="s">
-        <v>106</v>
-      </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
         <v>102</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>103</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="0"/>
         <v>-1.96 (-2.06, -1.85)</v>
       </c>
-      <c r="R11" s="53"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V11" s="13"/>
       <c r="W11" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>2.30783830139175E-2</v>
@@ -5717,73 +5717,73 @@
         <v>8.5973356530378103E-2</v>
       </c>
       <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" t="s">
-        <v>103</v>
-      </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v>0.02 (-0.04, 0.09)</v>
       </c>
-      <c r="R12" s="54"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V12" s="14"/>
       <c r="W12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>0.137898869335743</v>
@@ -5795,56 +5795,56 @@
         <v>0.24045382095689799</v>
       </c>
       <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
         <v>109</v>
       </c>
-      <c r="I13" t="s">
-        <v>110</v>
-      </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
         <v>102</v>
       </c>
-      <c r="L13" t="s">
-        <v>103</v>
-      </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v>0.14 (0.04, 0.24)</v>
       </c>
-      <c r="R13" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
+      <c r="R13" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>-0.28767869602012403</v>
@@ -5856,22 +5856,22 @@
         <v>-0.226860247842015</v>
       </c>
       <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
         <v>105</v>
-      </c>
-      <c r="I14" t="s">
-        <v>106</v>
       </c>
       <c r="J14" t="s">
         <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
@@ -5883,13 +5883,13 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>-0.115349837150138</v>
@@ -5901,22 +5901,22 @@
         <v>-1.6529506419719502E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
         <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
@@ -5928,13 +5928,13 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>5.3667298207964002E-2</v>
@@ -5946,19 +5946,19 @@
         <v>0.113999849763841</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
@@ -5971,13 +5971,13 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>-0.286677885538209</v>
@@ -5989,22 +5989,22 @@
         <v>-0.22561714603308999</v>
       </c>
       <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
         <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="0"/>
@@ -6017,10 +6017,10 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -6035,16 +6035,16 @@
         <v>0.15624375527411699</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -6053,18 +6053,18 @@
         <f t="shared" si="0"/>
         <v>0.05 (-0.05, 0.16)</v>
       </c>
-      <c r="Q18" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
+      <c r="Q18" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="42.35" x14ac:dyDescent="0.5">
@@ -6072,13 +6072,13 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
       </c>
       <c r="E19">
         <v>-4.5519393567981903E-2</v>
@@ -6090,32 +6090,32 @@
         <v>1.54732300831088E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
         <v>87</v>
       </c>
       <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" t="s">
-        <v>112</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
         <v>-0.05 (-0.11, 0.02)</v>
       </c>
       <c r="Q19" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="S19" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="T19" s="16" t="s">
         <v>86</v>
@@ -6124,34 +6124,34 @@
         <v>87</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y19" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Z19" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>-2.3935911196953099</v>
@@ -6163,44 +6163,44 @@
         <v>-2.2402289934902999</v>
       </c>
       <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
         <v>105</v>
       </c>
-      <c r="I20" t="s">
-        <v>106</v>
-      </c>
       <c r="J20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" t="s">
         <v>115</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>116</v>
       </c>
-      <c r="L20" t="s">
-        <v>117</v>
-      </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
         <v>-2.39 (-2.55, -2.24)</v>
       </c>
-      <c r="Q20" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="R20" s="43" t="s">
+      <c r="Q20" s="54" t="s">
         <v>102</v>
       </c>
+      <c r="R20" s="49" t="s">
+        <v>101</v>
+      </c>
       <c r="S20" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
@@ -6210,16 +6210,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
       </c>
       <c r="E21">
         <v>9.1611295523183298E-2</v>
@@ -6231,37 +6231,37 @@
         <v>0.28942383098156998</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
         <v>115</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>116</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>117</v>
-      </c>
-      <c r="M21" t="s">
-        <v>118</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
         <v>0.09 (-0.11, 0.29)</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="43"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="49"/>
       <c r="S21" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V21" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
@@ -6271,16 +6271,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22">
         <v>-0.19922967613505299</v>
@@ -6292,37 +6292,37 @@
         <v>2.17179019534815E-2</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" t="s">
         <v>115</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>116</v>
       </c>
-      <c r="L22" t="s">
-        <v>117</v>
-      </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
         <v>-0.2 (-0.42, 0.02)</v>
       </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="43"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="49"/>
       <c r="S22" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T22" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V22" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
@@ -6332,16 +6332,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>-1.9433412339818701</v>
@@ -6353,37 +6353,37 @@
         <v>-1.6905876940663001</v>
       </c>
       <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
         <v>105</v>
       </c>
-      <c r="I23" t="s">
-        <v>106</v>
-      </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" t="s">
         <v>116</v>
       </c>
-      <c r="L23" t="s">
-        <v>117</v>
-      </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
         <v>-1.94 (-2.2, -1.69)</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="43" t="s">
-        <v>111</v>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="S23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="T23" s="18"/>
       <c r="U23" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V23" s="18"/>
       <c r="W23" s="19"/>
@@ -6393,16 +6393,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
       </c>
       <c r="E24">
         <v>-0.133241529578776</v>
@@ -6414,35 +6414,35 @@
         <v>-2.8615034312694802E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s">
         <v>116</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>117</v>
-      </c>
-      <c r="M24" t="s">
-        <v>118</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
         <v>-0.13 (-0.24, -0.03)</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="43"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="49"/>
       <c r="S24" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V24" s="18"/>
       <c r="W24" s="19"/>
@@ -6452,16 +6452,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25">
         <v>2.59916383634992E-2</v>
@@ -6473,32 +6473,32 @@
         <v>0.20088656761928</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" t="s">
         <v>116</v>
       </c>
-      <c r="L25" t="s">
-        <v>117</v>
-      </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
         <v>0.03 (-0.15, 0.2)</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="43"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="49"/>
       <c r="S25" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T25" s="18"/>
       <c r="U25" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V25" s="18"/>
       <c r="W25" s="19"/>
@@ -6508,16 +6508,16 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>-2.4157405770217402</v>
@@ -6529,64 +6529,64 @@
         <v>-2.21397882209732</v>
       </c>
       <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
         <v>105</v>
       </c>
-      <c r="I26" t="s">
-        <v>106</v>
-      </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" t="s">
         <v>116</v>
       </c>
-      <c r="L26" t="s">
-        <v>117</v>
-      </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
         <v>-2.42 (-2.62, -2.21)</v>
       </c>
-      <c r="Q26" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="R26" s="43" t="s">
+      <c r="Q26" s="51" t="s">
         <v>116</v>
       </c>
+      <c r="R26" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="S26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z26" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
       </c>
       <c r="E27">
         <v>-3.2457831307681699E-2</v>
@@ -6598,57 +6598,57 @@
         <v>7.8949147168403594E-2</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" t="s">
         <v>116</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>117</v>
-      </c>
-      <c r="M27" t="s">
-        <v>118</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
         <v>-0.03 (-0.14, 0.08)</v>
       </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="43"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="49"/>
       <c r="S27" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y27" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28">
         <v>-0.16531014828594701</v>
@@ -6660,57 +6660,57 @@
         <v>1.9653122160501801E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" t="s">
         <v>116</v>
       </c>
-      <c r="L28" t="s">
-        <v>117</v>
-      </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
         <v>-0.17 (-0.35, 0.02)</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="43"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="49"/>
       <c r="S28" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X28" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y28" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z28" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29">
         <v>-2.1849467765842001</v>
@@ -6722,62 +6722,62 @@
         <v>-1.7825710414232501</v>
       </c>
       <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
         <v>105</v>
       </c>
-      <c r="I29" t="s">
-        <v>106</v>
-      </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" t="s">
         <v>116</v>
       </c>
-      <c r="L29" t="s">
-        <v>117</v>
-      </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
         <v>-2.18 (-2.59, -1.78)</v>
       </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="43" t="s">
-        <v>102</v>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="49" t="s">
+        <v>101</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X29" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y29" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z29" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
       </c>
       <c r="E30">
         <v>-8.60136693237427E-2</v>
@@ -6789,60 +6789,60 @@
         <v>-9.7848241104488004E-3</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" t="s">
         <v>116</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>117</v>
-      </c>
-      <c r="M30" t="s">
-        <v>118</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
         <v>-0.09 (-0.16, -0.01)</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="43"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="49"/>
       <c r="S30" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X30" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y30" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z30" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>-6.4193436301011694E-2</v>
@@ -6854,57 +6854,57 @@
         <v>6.2773829534393297E-2</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" t="s">
         <v>116</v>
       </c>
-      <c r="L31" t="s">
-        <v>117</v>
-      </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
         <v>-0.06 (-0.19, 0.06)</v>
       </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="49"/>
       <c r="S31" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X31" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y31" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z31" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
         <v>115</v>
       </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>-0.79561520822951903</v>
@@ -6916,30 +6916,30 @@
         <v>-0.714360606076202</v>
       </c>
       <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
         <v>105</v>
       </c>
-      <c r="I32" t="s">
-        <v>106</v>
-      </c>
       <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" t="s">
         <v>115</v>
       </c>
-      <c r="K32" t="s">
-        <v>116</v>
-      </c>
       <c r="L32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
         <v>-0.8 (-0.88, -0.71)</v>
       </c>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="43" t="s">
-        <v>111</v>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="S32" s="17" t="s">
         <v>36</v>
@@ -6948,30 +6948,30 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X32" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y32" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z32" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33">
         <v>-2.99326172789658E-2</v>
@@ -6983,57 +6983,57 @@
         <v>9.7097359883935502E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" t="s">
         <v>115</v>
       </c>
-      <c r="K33" t="s">
-        <v>116</v>
-      </c>
       <c r="L33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
         <v>-0.03 (-0.16, 0.1)</v>
       </c>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="43"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="49"/>
       <c r="S33" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X33" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y33" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z33" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34">
         <v>-2.1530923739842899E-2</v>
@@ -7045,57 +7045,57 @@
         <v>9.5228102523375296E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" t="s">
         <v>115</v>
       </c>
-      <c r="K34" t="s">
-        <v>116</v>
-      </c>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
         <v>-0.02 (-0.14, 0.1)</v>
       </c>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="43"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="49"/>
       <c r="S34" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X34" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y34" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z34" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35">
         <v>-0.57553336678634603</v>
@@ -7107,64 +7107,64 @@
         <v>-0.47595790365136298</v>
       </c>
       <c r="H35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" t="s">
         <v>105</v>
       </c>
-      <c r="I35" t="s">
-        <v>106</v>
-      </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="0"/>
         <v>-0.58 (-0.68, -0.48)</v>
       </c>
-      <c r="Q35" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R35" s="43" t="s">
-        <v>116</v>
+      <c r="Q35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="49" t="s">
+        <v>115</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T35" s="19"/>
       <c r="U35" s="18"/>
       <c r="V35" s="19"/>
       <c r="W35" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X35" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y35" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36">
         <v>-2.2665661929038999E-2</v>
@@ -7176,57 +7176,57 @@
         <v>1.1561255706658599E-2</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="0"/>
         <v>-0.02 (-0.06, 0.01)</v>
       </c>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="43"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="49"/>
       <c r="S36" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T36" s="19"/>
       <c r="U36" s="18"/>
       <c r="V36" s="19"/>
       <c r="W36" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X36" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <v>-2.0760984455911999E-2</v>
@@ -7238,57 +7238,57 @@
         <v>2.7643186662718401E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
         <v>-0.02 (-0.07, 0.03)</v>
       </c>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="43"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="49"/>
       <c r="S37" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T37" s="19"/>
       <c r="U37" s="18"/>
       <c r="V37" s="19"/>
       <c r="W37" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X37" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y37" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z37" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>-0.86231883878063598</v>
@@ -7300,64 +7300,64 @@
         <v>-0.75484038593740299</v>
       </c>
       <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
         <v>105</v>
       </c>
-      <c r="I38" t="s">
-        <v>106</v>
-      </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>-0.86 (-0.97, -0.75)</v>
       </c>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="43" t="s">
-        <v>102</v>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="49" t="s">
+        <v>101</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T38" s="19"/>
       <c r="U38" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V38" s="19"/>
       <c r="W38" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X38" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y38" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z38" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39">
         <v>-1.0835873822423001E-3</v>
@@ -7369,59 +7369,59 @@
         <v>3.5253796660779498E-2</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>0 (-0.04, 0.04)</v>
       </c>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="43"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="49"/>
       <c r="S39" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T39" s="19"/>
       <c r="U39" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V39" s="19"/>
       <c r="W39" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X39" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y39" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z39" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>5.6346543876285198E-3</v>
@@ -7433,59 +7433,59 @@
         <v>5.7023475722429703E-2</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>0.01 (-0.05, 0.06)</v>
       </c>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="43"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="49"/>
       <c r="S40" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T40" s="19"/>
       <c r="U40" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V40" s="33"/>
       <c r="W40" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X40" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y40" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z40" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41">
         <v>-0.721129141433279</v>
@@ -7497,64 +7497,64 @@
         <v>-0.425080885537305</v>
       </c>
       <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
         <v>105</v>
       </c>
-      <c r="I41" t="s">
-        <v>106</v>
-      </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
         <v>-0.72 (-1.02, -0.43)</v>
       </c>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="43" t="s">
-        <v>111</v>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="S41" s="17" t="s">
         <v>36</v>
       </c>
       <c r="T41" s="19"/>
       <c r="U41" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V41" s="19"/>
       <c r="W41" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X41" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y41" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z41" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42">
         <v>-1.25621257481734E-2</v>
@@ -7566,59 +7566,59 @@
         <v>1.23366364534363E-2</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.01)</v>
       </c>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="43"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="49"/>
       <c r="S42" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T42" s="19"/>
       <c r="U42" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V42" s="19"/>
       <c r="W42" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X42" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y42" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z42" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>-8.4085196543692703E-3</v>
@@ -7630,59 +7630,59 @@
         <v>2.68036475374498E-2</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.03)</v>
       </c>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="44"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="50"/>
       <c r="S43" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T43" s="20"/>
       <c r="U43" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V43" s="35"/>
       <c r="W43" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X43" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z43" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44">
         <v>-2.4837434309255899</v>
@@ -7694,52 +7694,52 @@
         <v>-2.3731951290015001</v>
       </c>
       <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
         <v>105</v>
       </c>
-      <c r="I44" t="s">
-        <v>106</v>
-      </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v>-2.48 (-2.59, -2.37)</v>
       </c>
-      <c r="Q44" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
+      <c r="Q44" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>-0.15655881682968001</v>
@@ -7751,22 +7751,22 @@
         <v>-6.04582903413192E-2</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" t="s">
         <v>106</v>
-      </c>
-      <c r="J45" t="s">
-        <v>115</v>
-      </c>
-      <c r="K45" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" t="s">
-        <v>117</v>
-      </c>
-      <c r="M45" t="s">
-        <v>107</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="0"/>
@@ -7775,16 +7775,16 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>0.134120349091192</v>
@@ -7796,22 +7796,22 @@
         <v>0.24508795981776499</v>
       </c>
       <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
         <v>109</v>
       </c>
-      <c r="I46" t="s">
-        <v>110</v>
-      </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
@@ -7820,16 +7820,16 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>-1.92906099588036</v>
@@ -7841,22 +7841,22 @@
         <v>-1.75052215662189</v>
       </c>
       <c r="H47" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
         <v>105</v>
       </c>
-      <c r="I47" t="s">
-        <v>106</v>
-      </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="0"/>
@@ -7865,16 +7865,16 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48">
         <v>-0.82209322982552102</v>
@@ -7886,22 +7886,22 @@
         <v>-0.65055848573023101</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" t="s">
         <v>106</v>
-      </c>
-      <c r="J48" t="s">
-        <v>121</v>
-      </c>
-      <c r="K48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L48" t="s">
-        <v>117</v>
-      </c>
-      <c r="M48" t="s">
-        <v>107</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
@@ -7910,16 +7910,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49">
         <v>0.80493496239572404</v>
@@ -7931,22 +7931,22 @@
         <v>0.98396940495948704</v>
       </c>
       <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
         <v>109</v>
       </c>
-      <c r="I49" t="s">
-        <v>110</v>
-      </c>
       <c r="J49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
@@ -7955,16 +7955,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50">
         <v>-2.4946977490853599</v>
@@ -7976,22 +7976,22 @@
         <v>-2.31953680091965</v>
       </c>
       <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
         <v>105</v>
       </c>
-      <c r="I50" t="s">
-        <v>106</v>
-      </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="0"/>
@@ -8000,16 +8000,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>-0.23748227602477201</v>
@@ -8021,22 +8021,22 @@
         <v>-7.0369706495525097E-2</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I51" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" t="s">
         <v>106</v>
-      </c>
-      <c r="J51" t="s">
-        <v>122</v>
-      </c>
-      <c r="K51" t="s">
-        <v>102</v>
-      </c>
-      <c r="L51" t="s">
-        <v>117</v>
-      </c>
-      <c r="M51" t="s">
-        <v>107</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
@@ -8045,16 +8045,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52">
         <v>0.22603514752204601</v>
@@ -8066,22 +8066,22 @@
         <v>0.39994447469259797</v>
       </c>
       <c r="H52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" t="s">
         <v>109</v>
       </c>
-      <c r="I52" t="s">
-        <v>110</v>
-      </c>
       <c r="J52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
@@ -8090,16 +8090,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53">
         <v>-2.2025235695548302</v>
@@ -8111,22 +8111,22 @@
         <v>-1.96567142261729</v>
       </c>
       <c r="H53" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" t="s">
         <v>105</v>
       </c>
-      <c r="I53" t="s">
-        <v>106</v>
-      </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
@@ -8135,16 +8135,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54">
         <v>-0.605664502816044</v>
@@ -8156,22 +8156,22 @@
         <v>-0.47777795788896199</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I54" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" t="s">
         <v>106</v>
-      </c>
-      <c r="J54" t="s">
-        <v>123</v>
-      </c>
-      <c r="K54" t="s">
-        <v>102</v>
-      </c>
-      <c r="L54" t="s">
-        <v>117</v>
-      </c>
-      <c r="M54" t="s">
-        <v>107</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
@@ -8180,16 +8180,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55">
         <v>0.58855267325554494</v>
@@ -8201,22 +8201,22 @@
         <v>0.72092434747354395</v>
       </c>
       <c r="H55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" t="s">
         <v>109</v>
       </c>
-      <c r="I55" t="s">
-        <v>110</v>
-      </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="0"/>
@@ -8225,16 +8225,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56">
         <v>-2.4864254901373202</v>
@@ -8246,22 +8246,22 @@
         <v>-2.37500621872814</v>
       </c>
       <c r="H56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" t="s">
         <v>105</v>
       </c>
-      <c r="I56" t="s">
-        <v>106</v>
-      </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="0"/>
@@ -8270,13 +8270,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -8291,19 +8291,19 @@
         <v>-7.1105237020460302E-2</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M57" t="s">
         <v>23</v>
@@ -8315,16 +8315,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s">
-        <v>112</v>
       </c>
       <c r="E58">
         <v>0.13850847177279299</v>
@@ -8336,22 +8336,22 @@
         <v>0.25001224480185402</v>
       </c>
       <c r="H58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" t="s">
         <v>109</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" t="s">
         <v>110</v>
       </c>
-      <c r="J58" t="s">
-        <v>115</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" t="s">
         <v>111</v>
-      </c>
-      <c r="L58" t="s">
-        <v>117</v>
-      </c>
-      <c r="M58" t="s">
-        <v>112</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
@@ -8360,16 +8360,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59">
         <v>-1.92532755478967</v>
@@ -8381,22 +8381,22 @@
         <v>-1.7225154582103399</v>
       </c>
       <c r="H59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" t="s">
         <v>105</v>
       </c>
-      <c r="I59" t="s">
-        <v>106</v>
-      </c>
       <c r="J59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="0"/>
@@ -8405,13 +8405,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -8426,19 +8426,19 @@
         <v>-0.53230535878344498</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M60" t="s">
         <v>23</v>
@@ -8450,16 +8450,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
       </c>
       <c r="E61">
         <v>0.63270106148332905</v>
@@ -8471,22 +8471,22 @@
         <v>0.83546728988380403</v>
       </c>
       <c r="H61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" t="s">
         <v>109</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
+        <v>120</v>
+      </c>
+      <c r="K61" t="s">
         <v>110</v>
       </c>
-      <c r="J61" t="s">
-        <v>121</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>116</v>
+      </c>
+      <c r="M61" t="s">
         <v>111</v>
-      </c>
-      <c r="L61" t="s">
-        <v>117</v>
-      </c>
-      <c r="M61" t="s">
-        <v>112</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="0"/>
@@ -8495,16 +8495,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62">
         <v>-2.49492152090748</v>
@@ -8516,22 +8516,22 @@
         <v>-2.32155705236503</v>
       </c>
       <c r="H62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" t="s">
-        <v>106</v>
-      </c>
       <c r="J62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
@@ -8540,13 +8540,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -8561,19 +8561,19 @@
         <v>-3.6256870460511001E-2</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M63" t="s">
         <v>23</v>
@@ -8585,16 +8585,16 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
         <v>111</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
       </c>
       <c r="E64">
         <v>0.25644468100399898</v>
@@ -8606,22 +8606,22 @@
         <v>0.42944205124263102</v>
       </c>
       <c r="H64" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" t="s">
         <v>109</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
+        <v>121</v>
+      </c>
+      <c r="K64" t="s">
         <v>110</v>
       </c>
-      <c r="J64" t="s">
-        <v>122</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
+        <v>116</v>
+      </c>
+      <c r="M64" t="s">
         <v>111</v>
-      </c>
-      <c r="L64" t="s">
-        <v>117</v>
-      </c>
-      <c r="M64" t="s">
-        <v>112</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
@@ -8630,16 +8630,16 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65">
         <v>-2.2061500969850698</v>
@@ -8651,22 +8651,22 @@
         <v>-1.8776602927552599</v>
       </c>
       <c r="H65" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" t="s">
         <v>105</v>
       </c>
-      <c r="I65" t="s">
-        <v>106</v>
-      </c>
       <c r="J65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="0"/>
@@ -8675,13 +8675,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -8696,19 +8696,19 @@
         <v>-0.37409781114466301</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M66" t="s">
         <v>23</v>
@@ -8720,16 +8720,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
         <v>111</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
       </c>
       <c r="E67">
         <v>0.47849359939064501</v>
@@ -8741,22 +8741,22 @@
         <v>0.61644289109257699</v>
       </c>
       <c r="H67" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" t="s">
         <v>109</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67" t="s">
         <v>110</v>
       </c>
-      <c r="J67" t="s">
-        <v>123</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
+        <v>116</v>
+      </c>
+      <c r="M67" t="s">
         <v>111</v>
-      </c>
-      <c r="L67" t="s">
-        <v>117</v>
-      </c>
-      <c r="M67" t="s">
-        <v>112</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N91" si="1">_xlfn.CONCAT(ROUND(E67,$N$1)," (",ROUND(F67,$N$1),", ",ROUND(G67,$N$1),")")</f>
@@ -8765,16 +8765,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E68">
         <v>-0.80684338978530601</v>
@@ -8786,22 +8786,22 @@
         <v>-0.74750722565370598</v>
       </c>
       <c r="H68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" t="s">
         <v>105</v>
       </c>
-      <c r="I68" t="s">
-        <v>106</v>
-      </c>
       <c r="J68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="1"/>
@@ -8810,16 +8810,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>1.80376110567496E-2</v>
@@ -8831,19 +8831,19 @@
         <v>8.2701016673962902E-2</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="1"/>
@@ -8852,16 +8852,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>5.1541598069413698E-2</v>
@@ -8873,19 +8873,19 @@
         <v>0.11088337308251101</v>
       </c>
       <c r="H70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="1"/>
@@ -8894,16 +8894,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71">
         <v>-0.58749050986189</v>
@@ -8915,22 +8915,22 @@
         <v>-0.506945805720591</v>
       </c>
       <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
         <v>105</v>
       </c>
-      <c r="I71" t="s">
-        <v>106</v>
-      </c>
       <c r="J71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="1"/>
@@ -8939,16 +8939,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>0.14860845110116999</v>
@@ -8960,22 +8960,22 @@
         <v>0.24327823995164399</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="1"/>
@@ -8984,16 +8984,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>0.27577760049620098</v>
@@ -9005,22 +9005,22 @@
         <v>0.35616557730103299</v>
       </c>
       <c r="H73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
         <v>109</v>
       </c>
-      <c r="I73" t="s">
-        <v>110</v>
-      </c>
       <c r="J73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="1"/>
@@ -9029,16 +9029,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>-0.85950151158669796</v>
@@ -9050,22 +9050,22 @@
         <v>-0.76075605670977398</v>
       </c>
       <c r="H74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" t="s">
         <v>105</v>
       </c>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="1"/>
@@ -9074,16 +9074,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>0.160507258306642</v>
@@ -9095,22 +9095,22 @@
         <v>0.26546105610467302</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="1"/>
@@ -9119,16 +9119,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76">
         <v>0.16755419111341399</v>
@@ -9140,22 +9140,22 @@
         <v>0.26630369983006302</v>
       </c>
       <c r="H76" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" t="s">
         <v>109</v>
       </c>
-      <c r="I76" t="s">
-        <v>110</v>
-      </c>
       <c r="J76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="1"/>
@@ -9164,16 +9164,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77">
         <v>-0.72186613279674605</v>
@@ -9185,22 +9185,22 @@
         <v>-0.52381428390433904</v>
       </c>
       <c r="H77" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" t="s">
         <v>105</v>
       </c>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="1"/>
@@ -9209,16 +9209,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78">
         <v>0.15340170690653099</v>
@@ -9230,22 +9230,22 @@
         <v>0.224128481888236</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="1"/>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79">
         <v>0.236865738063507</v>
@@ -9275,22 +9275,22 @@
         <v>0.30085597915884998</v>
       </c>
       <c r="H79" t="s">
+        <v>108</v>
+      </c>
+      <c r="I79" t="s">
         <v>109</v>
       </c>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="1"/>
@@ -9299,16 +9299,16 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E80">
         <v>-0.804470059779966</v>
@@ -9320,22 +9320,22 @@
         <v>-0.74493849642575205</v>
       </c>
       <c r="H80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" t="s">
         <v>105</v>
       </c>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
       <c r="J80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="1"/>
@@ -9344,13 +9344,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -9365,16 +9365,16 @@
         <v>9.8134475386929904E-2</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M81" t="s">
         <v>23</v>
@@ -9386,16 +9386,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
         <v>111</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>112</v>
       </c>
       <c r="E82">
         <v>6.3460887276497402E-2</v>
@@ -9407,22 +9407,22 @@
         <v>0.122999072126123</v>
       </c>
       <c r="H82" t="s">
+        <v>108</v>
+      </c>
+      <c r="I82" t="s">
         <v>109</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82" t="s">
         <v>110</v>
       </c>
-      <c r="J82" t="s">
-        <v>115</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
+        <v>113</v>
+      </c>
+      <c r="M82" t="s">
         <v>111</v>
-      </c>
-      <c r="L82" t="s">
-        <v>114</v>
-      </c>
-      <c r="M82" t="s">
-        <v>112</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="1"/>
@@ -9431,16 +9431,16 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83">
         <v>-0.58421488418871803</v>
@@ -9452,22 +9452,22 @@
         <v>-0.50791834777275702</v>
       </c>
       <c r="H83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" t="s">
         <v>105</v>
       </c>
-      <c r="I83" t="s">
-        <v>106</v>
-      </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="1"/>
@@ -9476,13 +9476,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -9497,16 +9497,16 @@
         <v>0.181772934665588</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M84" t="s">
         <v>23</v>
@@ -9518,16 +9518,16 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" t="s">
         <v>111</v>
-      </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>112</v>
       </c>
       <c r="E85">
         <v>0.30653409434553103</v>
@@ -9539,22 +9539,22 @@
         <v>0.38287111352860798</v>
       </c>
       <c r="H85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
         <v>109</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+      <c r="K85" t="s">
         <v>110</v>
       </c>
-      <c r="J85" t="s">
-        <v>121</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
+        <v>113</v>
+      </c>
+      <c r="M85" t="s">
         <v>111</v>
-      </c>
-      <c r="L85" t="s">
-        <v>114</v>
-      </c>
-      <c r="M85" t="s">
-        <v>112</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="1"/>
@@ -9563,16 +9563,16 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E86">
         <v>-0.85950151158676702</v>
@@ -9584,22 +9584,22 @@
         <v>-0.76340597379339803</v>
       </c>
       <c r="H86" t="s">
+        <v>104</v>
+      </c>
+      <c r="I86" t="s">
         <v>105</v>
       </c>
-      <c r="I86" t="s">
-        <v>106</v>
-      </c>
       <c r="J86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="1"/>
@@ -9608,13 +9608,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -9629,16 +9629,16 @@
         <v>0.205680869380856</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M87" t="s">
         <v>23</v>
@@ -9650,16 +9650,16 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" t="s">
         <v>111</v>
-      </c>
-      <c r="C88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88" t="s">
-        <v>112</v>
       </c>
       <c r="E88">
         <v>0.19873699192566799</v>
@@ -9671,22 +9671,22 @@
         <v>0.29483647477057001</v>
       </c>
       <c r="H88" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" t="s">
         <v>109</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+      <c r="K88" t="s">
         <v>110</v>
       </c>
-      <c r="J88" t="s">
-        <v>122</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
+        <v>113</v>
+      </c>
+      <c r="M88" t="s">
         <v>111</v>
-      </c>
-      <c r="L88" t="s">
-        <v>114</v>
-      </c>
-      <c r="M88" t="s">
-        <v>112</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="1"/>
@@ -9695,16 +9695,16 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89">
         <v>-0.72213853884046098</v>
@@ -9716,22 +9716,22 @@
         <v>-0.48308973975873298</v>
       </c>
       <c r="H89" t="s">
+        <v>104</v>
+      </c>
+      <c r="I89" t="s">
         <v>105</v>
       </c>
-      <c r="I89" t="s">
-        <v>106</v>
-      </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="1"/>
@@ -9740,13 +9740,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -9761,19 +9761,19 @@
         <v>0.161867497447408</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" t="s">
         <v>110</v>
       </c>
-      <c r="J90" t="s">
-        <v>123</v>
-      </c>
-      <c r="K90" t="s">
-        <v>111</v>
-      </c>
       <c r="L90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M90" t="s">
         <v>23</v>
@@ -9785,16 +9785,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" t="s">
         <v>111</v>
-      </c>
-      <c r="C91" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" t="s">
-        <v>112</v>
       </c>
       <c r="E91">
         <v>0.26134156789080099</v>
@@ -9806,22 +9806,22 @@
         <v>0.32229678049355098</v>
       </c>
       <c r="H91" t="s">
+        <v>108</v>
+      </c>
+      <c r="I91" t="s">
         <v>109</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+      <c r="K91" t="s">
         <v>110</v>
       </c>
-      <c r="J91" t="s">
-        <v>123</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
+        <v>113</v>
+      </c>
+      <c r="M91" t="s">
         <v>111</v>
-      </c>
-      <c r="L91" t="s">
-        <v>114</v>
-      </c>
-      <c r="M91" t="s">
-        <v>112</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="1"/>
@@ -9830,15 +9830,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R1:AE1"/>
-    <mergeCell ref="R13:AE13"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
     <mergeCell ref="Q44:Z44"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R23:R25"/>
@@ -9851,6 +9842,15 @@
     <mergeCell ref="Q26:Q34"/>
     <mergeCell ref="Q35:Q43"/>
     <mergeCell ref="Q20:Q25"/>
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="R13:AE13"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9861,8 +9861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6EF612-2EAA-47F0-A461-37A3A32210F7}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="129" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:P5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9874,10 +9874,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>70</v>
@@ -9894,10 +9894,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
         <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -9916,7 +9916,7 @@
         <v>-0.33 (-0.512, -0.119)</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -9947,7 +9947,7 @@
         <v>0.041 (-0.199, 0.275)</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M3" s="57" t="s">
         <v>70</v>
@@ -9959,15 +9959,15 @@
         <v>90</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -9999,10 +9999,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
         <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -10021,27 +10021,27 @@
         <v>0.218 (-0.057, 0.465)</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
         <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -10064,21 +10064,21 @@
         <v>75</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
         <v>220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>221</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -10101,21 +10101,21 @@
         <v>76</v>
       </c>
       <c r="N7" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="P7" s="30" t="s">
         <v>232</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -10138,21 +10138,21 @@
         <v>77</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="P8" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -10175,21 +10175,21 @@
         <v>78</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -10212,21 +10212,21 @@
         <v>79</v>
       </c>
       <c r="N10" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="30" t="s">
         <v>241</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -10252,10 +10252,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
@@ -10274,27 +10274,27 @@
         <v>0.018 (-0.295, 0.335)</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>74</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -10317,21 +10317,21 @@
         <v>75</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -10354,21 +10354,21 @@
         <v>76</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -10391,21 +10391,21 @@
         <v>77</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -10428,21 +10428,21 @@
         <v>78</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -10465,21 +10465,21 @@
         <v>79</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="29.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
@@ -10498,7 +10498,7 @@
         <v>-0.034 (-0.248, 0.183)</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -10507,10 +10507,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -10531,10 +10531,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -10555,10 +10555,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -10579,10 +10579,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -10603,10 +10603,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
@@ -10675,10 +10675,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -10699,10 +10699,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -10723,10 +10723,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
@@ -10747,10 +10747,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>77</v>
@@ -10771,10 +10771,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -10795,10 +10795,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
@@ -10819,10 +10819,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
         <v>223</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -10843,10 +10843,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
         <v>223</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -10867,10 +10867,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" t="s">
         <v>223</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -10891,10 +10891,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
         <v>223</v>
-      </c>
-      <c r="B35" t="s">
-        <v>224</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -10915,10 +10915,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s">
         <v>223</v>
-      </c>
-      <c r="B36" t="s">
-        <v>224</v>
       </c>
       <c r="C36" t="s">
         <v>78</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="s">
         <v>223</v>
-      </c>
-      <c r="B37" t="s">
-        <v>224</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
@@ -10978,8 +10978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D0577-EE48-46BC-BB2C-B27FDF10FE2C}">
   <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10990,47 +10990,47 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
         <v>276</v>
-      </c>
-      <c r="I3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4">
         <v>-2.0146587997443399</v>
@@ -11060,12 +11060,12 @@
         <v>-1.47107145656694</v>
       </c>
       <c r="L4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5">
         <v>-4.4521714126401797</v>
@@ -11083,7 +11083,7 @@
         <v>-6.1023429524482502</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5">
         <v>-0.98193413857148104</v>
@@ -11095,12 +11095,12 @@
         <v>-0.67611398080271101</v>
       </c>
       <c r="L5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6">
         <v>-0.87874483548591398</v>
@@ -11130,12 +11130,12 @@
         <v>0.19663865468215699</v>
       </c>
       <c r="L6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7">
         <v>0.41120952423394602</v>
@@ -11165,12 +11165,12 @@
         <v>0.77366131958685602</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8">
         <v>0.70689614499577702</v>
@@ -11200,74 +11200,74 @@
         <v>1.0655760530647</v>
       </c>
       <c r="L8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L10">
         <v>433.359465419971</v>
@@ -11275,34 +11275,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L11">
         <v>455.15733476333298</v>
@@ -11310,34 +11310,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L12">
         <v>0.34206560051384899</v>
@@ -11345,34 +11345,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L13">
         <v>0.85956223427383505</v>
@@ -11380,34 +11380,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L14">
         <v>0.36622791126295101</v>
@@ -11415,50 +11415,50 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" t="s">
-        <v>290</v>
-      </c>
-      <c r="H17" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" t="s">
         <v>276</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18">
         <v>2.9085426618783901</v>
@@ -11479,10 +11479,10 @@
         <v>571</v>
       </c>
       <c r="I18" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>293</v>
       </c>
       <c r="K18">
         <v>-7.0489092406770607E-2</v>
@@ -11491,12 +11491,12 @@
         <v>7.0489092406771203E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19">
         <v>-0.81349185690563297</v>
@@ -11517,7 +11517,7 @@
         <v>571</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J19">
         <v>-0.22223739625967801</v>
@@ -11529,12 +11529,12 @@
         <v>-0.123715508582809</v>
       </c>
       <c r="M19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20">
         <v>-0.459978556835969</v>
@@ -11567,12 +11567,12 @@
         <v>3.9156098838588602E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21">
         <v>-8.7417294759945099E-2</v>
@@ -11605,12 +11605,12 @@
         <v>2.9486689901914401E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22">
         <v>0.34889152699299503</v>
@@ -11631,7 +11631,7 @@
         <v>571</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J22">
         <v>0.40180369020441498</v>
@@ -11643,80 +11643,80 @@
         <v>0.52500455800465495</v>
       </c>
       <c r="M22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M24">
         <v>1224.60375781588</v>
@@ -11724,37 +11724,37 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M25">
         <v>1250.74040378006</v>
@@ -11762,37 +11762,37 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M26">
         <v>0.26329207050533698</v>
@@ -11800,37 +11800,37 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M27">
         <v>0.25813124437927998</v>
@@ -11838,37 +11838,37 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M28">
         <v>0.69630194825606095</v>

--- a/figures/tables.xlsx
+++ b/figures/tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="418" documentId="13_ncr:1_{0F58EC01-9302-4548-881B-F070D8A116DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53925B2E-FAF5-4A0A-A849-593C91BAB98B}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -1241,24 +1241,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1279,6 +1261,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1B876-0218-4255-A060-15655E67617D}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4890,22 +4890,22 @@
       <c r="N1">
         <v>2</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
@@ -4953,24 +4953,24 @@
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="28" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -5096,7 +5096,7 @@
         <f t="shared" si="0"/>
         <v>0.21 (0.06, 0.36)</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="53" t="s">
         <v>115</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -5175,7 +5175,7 @@
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R5" s="46"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="12" t="s">
         <v>108</v>
       </c>
@@ -5249,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>0.01 (-0.08, 0.1)</v>
       </c>
-      <c r="R6" s="46"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="12" t="s">
         <v>104</v>
       </c>
@@ -5323,7 +5323,7 @@
         <f t="shared" si="0"/>
         <v>0.1 (-0.03, 0.24)</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="R7" s="53" t="s">
         <v>101</v>
       </c>
       <c r="S7" s="12" t="s">
@@ -5410,7 +5410,7 @@
         <f t="shared" si="0"/>
         <v>-1.97 (-2.11, -1.83)</v>
       </c>
-      <c r="R8" s="46"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="12" t="s">
         <v>108</v>
       </c>
@@ -5492,7 +5492,7 @@
         <f t="shared" si="0"/>
         <v>0.04 (-0.05, 0.13)</v>
       </c>
-      <c r="R9" s="46"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="12" t="s">
         <v>104</v>
       </c>
@@ -5574,7 +5574,7 @@
         <f t="shared" si="0"/>
         <v>0.13 (-0.01, 0.27)</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="53" t="s">
         <v>208</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -5657,7 +5657,7 @@
         <f t="shared" si="0"/>
         <v>-1.96 (-2.06, -1.85)</v>
       </c>
-      <c r="R11" s="46"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="12" t="s">
         <v>108</v>
       </c>
@@ -5735,7 +5735,7 @@
         <f t="shared" si="0"/>
         <v>0.02 (-0.04, 0.09)</v>
       </c>
-      <c r="R12" s="47"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="10" t="s">
         <v>104</v>
       </c>
@@ -5816,22 +5816,22 @@
         <f t="shared" si="0"/>
         <v>0.14 (0.04, 0.24)</v>
       </c>
-      <c r="R13" s="43" t="s">
+      <c r="R13" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
@@ -6053,18 +6053,18 @@
         <f t="shared" si="0"/>
         <v>0.05 (-0.05, 0.16)</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="42.35" x14ac:dyDescent="0.5">
@@ -6184,10 +6184,10 @@
         <f t="shared" si="0"/>
         <v>-2.39 (-2.55, -2.24)</v>
       </c>
-      <c r="Q20" s="54" t="s">
+      <c r="Q20" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="R20" s="49" t="s">
+      <c r="R20" s="43" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="17" t="s">
@@ -6249,8 +6249,8 @@
         <f t="shared" si="0"/>
         <v>0.09 (-0.11, 0.29)</v>
       </c>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="49"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="43"/>
       <c r="S21" s="17" t="s">
         <v>108</v>
       </c>
@@ -6310,8 +6310,8 @@
         <f t="shared" si="0"/>
         <v>-0.2 (-0.42, 0.02)</v>
       </c>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="49"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="43"/>
       <c r="S22" s="17" t="s">
         <v>104</v>
       </c>
@@ -6374,8 +6374,8 @@
         <f t="shared" si="0"/>
         <v>-1.94 (-2.2, -1.69)</v>
       </c>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="49" t="s">
+      <c r="Q23" s="46"/>
+      <c r="R23" s="43" t="s">
         <v>110</v>
       </c>
       <c r="S23" s="17" t="s">
@@ -6435,8 +6435,8 @@
         <f t="shared" si="0"/>
         <v>-0.13 (-0.24, -0.03)</v>
       </c>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="49"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="43"/>
       <c r="S24" s="17" t="s">
         <v>108</v>
       </c>
@@ -6491,8 +6491,8 @@
         <f t="shared" si="0"/>
         <v>0.03 (-0.15, 0.2)</v>
       </c>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="49"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="43"/>
       <c r="S25" s="17" t="s">
         <v>104</v>
       </c>
@@ -6550,10 +6550,10 @@
         <f t="shared" si="0"/>
         <v>-2.42 (-2.62, -2.21)</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="Q26" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="43" t="s">
         <v>115</v>
       </c>
       <c r="S26" s="17" t="s">
@@ -6616,8 +6616,8 @@
         <f t="shared" si="0"/>
         <v>-0.03 (-0.14, 0.08)</v>
       </c>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="49"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="43"/>
       <c r="S27" s="17" t="s">
         <v>108</v>
       </c>
@@ -6678,8 +6678,8 @@
         <f t="shared" si="0"/>
         <v>-0.17 (-0.35, 0.02)</v>
       </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="49"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="43"/>
       <c r="S28" s="17" t="s">
         <v>104</v>
       </c>
@@ -6743,8 +6743,8 @@
         <f t="shared" si="0"/>
         <v>-2.18 (-2.59, -1.78)</v>
       </c>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="49" t="s">
+      <c r="Q29" s="45"/>
+      <c r="R29" s="43" t="s">
         <v>101</v>
       </c>
       <c r="S29" s="17" t="s">
@@ -6810,8 +6810,8 @@
         <f t="shared" si="0"/>
         <v>-0.09 (-0.16, -0.01)</v>
       </c>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="49"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="43"/>
       <c r="S30" s="17" t="s">
         <v>108</v>
       </c>
@@ -6872,8 +6872,8 @@
         <f t="shared" si="0"/>
         <v>-0.06 (-0.19, 0.06)</v>
       </c>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="49"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43"/>
       <c r="S31" s="17" t="s">
         <v>104</v>
       </c>
@@ -6937,8 +6937,8 @@
         <f t="shared" si="0"/>
         <v>-0.8 (-0.88, -0.71)</v>
       </c>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="49" t="s">
+      <c r="Q32" s="45"/>
+      <c r="R32" s="43" t="s">
         <v>110</v>
       </c>
       <c r="S32" s="17" t="s">
@@ -7001,8 +7001,8 @@
         <f t="shared" si="0"/>
         <v>-0.03 (-0.16, 0.1)</v>
       </c>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="49"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="17" t="s">
         <v>108</v>
       </c>
@@ -7063,8 +7063,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.14, 0.1)</v>
       </c>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="49"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="17" t="s">
         <v>104</v>
       </c>
@@ -7128,10 +7128,10 @@
         <f t="shared" si="0"/>
         <v>-0.58 (-0.68, -0.48)</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="R35" s="49" t="s">
+      <c r="R35" s="43" t="s">
         <v>115</v>
       </c>
       <c r="S35" s="17" t="s">
@@ -7194,8 +7194,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.06, 0.01)</v>
       </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="49"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="17" t="s">
         <v>108</v>
       </c>
@@ -7256,8 +7256,8 @@
         <f t="shared" si="0"/>
         <v>-0.02 (-0.07, 0.03)</v>
       </c>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="49"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="17" t="s">
         <v>104</v>
       </c>
@@ -7321,8 +7321,8 @@
         <f t="shared" si="0"/>
         <v>-0.86 (-0.97, -0.75)</v>
       </c>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="49" t="s">
+      <c r="Q38" s="46"/>
+      <c r="R38" s="43" t="s">
         <v>101</v>
       </c>
       <c r="S38" s="17" t="s">
@@ -7387,8 +7387,8 @@
         <f t="shared" si="0"/>
         <v>0 (-0.04, 0.04)</v>
       </c>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="49"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="43"/>
       <c r="S39" s="17" t="s">
         <v>108</v>
       </c>
@@ -7451,8 +7451,8 @@
         <f t="shared" si="0"/>
         <v>0.01 (-0.05, 0.06)</v>
       </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="49"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="43"/>
       <c r="S40" s="17" t="s">
         <v>104</v>
       </c>
@@ -7518,8 +7518,8 @@
         <f t="shared" si="0"/>
         <v>-0.72 (-1.02, -0.43)</v>
       </c>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="49" t="s">
+      <c r="Q41" s="46"/>
+      <c r="R41" s="43" t="s">
         <v>110</v>
       </c>
       <c r="S41" s="17" t="s">
@@ -7584,8 +7584,8 @@
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.01)</v>
       </c>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="49"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="17" t="s">
         <v>108</v>
       </c>
@@ -7648,8 +7648,8 @@
         <f t="shared" si="0"/>
         <v>-0.01 (-0.04, 0.03)</v>
       </c>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="50"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="44"/>
       <c r="S43" s="15" t="s">
         <v>104</v>
       </c>
@@ -7715,18 +7715,18 @@
         <f t="shared" si="0"/>
         <v>-2.48 (-2.59, -2.37)</v>
       </c>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
@@ -9830,6 +9830,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="R13:AE13"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R12"/>
     <mergeCell ref="Q44:Z44"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R23:R25"/>
@@ -9842,15 +9851,6 @@
     <mergeCell ref="Q26:Q34"/>
     <mergeCell ref="Q35:Q43"/>
     <mergeCell ref="Q20:Q25"/>
-    <mergeCell ref="R1:AE1"/>
-    <mergeCell ref="R13:AE13"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9861,7 +9861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6EF612-2EAA-47F0-A461-37A3A32210F7}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="129" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="129" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
